--- a/data/trans_dic/P2A_enfcro_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P2A_enfcro_R-Habitat-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.6230362518077533</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.4393240669068609</v>
+        <v>0.439324066906861</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.5266718418673618</v>
@@ -697,7 +697,7 @@
         <v>0.5639364957238028</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.4080859372049226</v>
+        <v>0.4080859372049225</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.4206735231666842</v>
+        <v>0.4166610710686786</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.5489990006499059</v>
+        <v>0.5505170257010741</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.4673896556385453</v>
+        <v>0.4685282034116735</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.3371868573254389</v>
+        <v>0.3372090067585183</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.5582900413229631</v>
+        <v>0.5607172745572453</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.643015086429555</v>
+        <v>0.6429708998139747</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.5843425684001151</v>
+        <v>0.5865851021619898</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.4082687714712742</v>
+        <v>0.406470899733526</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.4983477548564161</v>
+        <v>0.5018025153556773</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.6085374722345335</v>
+        <v>0.608585918280183</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.536974449323274</v>
+        <v>0.5363509010553611</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.3817860463608448</v>
+        <v>0.3822486324438205</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.493678856687583</v>
+        <v>0.4920816370202932</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.6286676981105415</v>
+        <v>0.6257147511101299</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.5453628979575673</v>
+        <v>0.541770577390185</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.4133802235094609</v>
+        <v>0.412641058676267</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.6328006947612617</v>
+        <v>0.6343064661756636</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.7137881418742522</v>
+        <v>0.7143442228509935</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.6609893893490599</v>
+        <v>0.6625294000581528</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.4685181485831446</v>
+        <v>0.468541386221196</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.5527675130627991</v>
+        <v>0.5535463550304611</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.6592851624583997</v>
+        <v>0.659743653013475</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.5918192785493611</v>
+        <v>0.5915910075116194</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.4311790234252303</v>
+        <v>0.433323881995099</v>
       </c>
     </row>
     <row r="7">
@@ -833,7 +833,7 @@
         <v>0.5647052111510589</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.3900966477600054</v>
+        <v>0.3900966477600055</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.4197208955952682</v>
+        <v>0.4169961569924837</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.489119967996004</v>
+        <v>0.4876532718768722</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.4576379329570189</v>
+        <v>0.4541870875899958</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.313096638335872</v>
+        <v>0.3161129710315133</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.5876004350205261</v>
+        <v>0.5903439773622136</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.65912908745274</v>
+        <v>0.6604079554535308</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.6078719008908083</v>
+        <v>0.6093621828426325</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.4051288798103294</v>
+        <v>0.4067701307729127</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.5142659808937792</v>
+        <v>0.515710482479236</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.5825544126123499</v>
+        <v>0.5826155317916791</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.5398719525201959</v>
+        <v>0.5427048194384017</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.3696111405467452</v>
+        <v>0.3689658180231722</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.48595802334607</v>
+        <v>0.4852267950729106</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.5525750547903381</v>
+        <v>0.554251468508935</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.5232701208527268</v>
+        <v>0.5183043991326298</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.3785615541235996</v>
+        <v>0.3811611366302577</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.6542826467769811</v>
+        <v>0.654063430514752</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.7195284810230296</v>
+        <v>0.7169424942949233</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.6683244211646878</v>
+        <v>0.6710191466189881</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.4603991995490067</v>
+        <v>0.4604378075345952</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.562156955878427</v>
+        <v>0.5613099104162095</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.6261419328314145</v>
+        <v>0.6281946982903657</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.5876802441132233</v>
+        <v>0.5895968379329088</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.4100830247669472</v>
+        <v>0.4109412326620711</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.4094861754001759</v>
+        <v>0.4070043534277238</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.4501484852145906</v>
+        <v>0.4482466850499968</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.4310734317068687</v>
+        <v>0.4328499623673369</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.2698260632272574</v>
+        <v>0.2701699161554945</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.5626162943035549</v>
+        <v>0.5649608600125979</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.6277011018095264</v>
+        <v>0.6253140717251451</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.5468682720885711</v>
+        <v>0.5428228925381453</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.3112615964191659</v>
+        <v>0.312949670584471</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.4966904847282333</v>
+        <v>0.4967340315555763</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.5502644858048743</v>
+        <v>0.5512264586150023</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.4965793383780104</v>
+        <v>0.5000253873072176</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.2994514456876251</v>
+        <v>0.2980442455756718</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.4845664809790956</v>
+        <v>0.4853366578156341</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.5265972294139597</v>
+        <v>0.5243644717066104</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.5043199232632949</v>
+        <v>0.5040301127683189</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.3428531484070138</v>
+        <v>0.3429200228611668</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.641604989021159</v>
+        <v>0.6382675464777984</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.6994299342312342</v>
+        <v>0.6993790206292864</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.6165839067196887</v>
+        <v>0.6180462857249769</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.3708181074985363</v>
+        <v>0.3736407313739818</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.5514263312633579</v>
+        <v>0.5511043831482193</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.6029233904271948</v>
+        <v>0.6020048517000675</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.550025004274577</v>
+        <v>0.5511392671059903</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.3480389921395409</v>
+        <v>0.3482295977504757</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.3870780802664632</v>
+        <v>0.3883003557646647</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.5247038625434978</v>
+        <v>0.5255848980382766</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.4924333015987228</v>
+        <v>0.4904179785450434</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.268156599893243</v>
+        <v>0.267058665443643</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.5630060113364693</v>
+        <v>0.5612972213253075</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.6407163745794822</v>
+        <v>0.6377751450947011</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.5716013684279296</v>
+        <v>0.573650384189116</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.3500362553669686</v>
+        <v>0.3511378538577339</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.4908534698695576</v>
+        <v>0.4892815042422883</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.5949843832472422</v>
+        <v>0.5978176566888512</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.5418432952594769</v>
+        <v>0.543688944263276</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.3191021388617261</v>
+        <v>0.3186278364380647</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.4525967002173146</v>
+        <v>0.4508926330092365</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.5925493520984214</v>
+        <v>0.5909380588801765</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.5553908137834713</v>
+        <v>0.5598767027896587</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.3302082544914573</v>
+        <v>0.3324156503907347</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.6250765477895021</v>
+        <v>0.6195485813839859</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.6987683272303807</v>
+        <v>0.6969120739967903</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.6313525769542154</v>
+        <v>0.6343568312829094</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.4010178972492054</v>
+        <v>0.4009454950841704</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.5332761622827776</v>
+        <v>0.5334456690734198</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.6389820183364238</v>
+        <v>0.6402183282452776</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.5853374186630795</v>
+        <v>0.5874375223917128</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.3570337813569717</v>
+        <v>0.3589736645224204</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.4249510226216046</v>
+        <v>0.427944986904724</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.5200356809354589</v>
+        <v>0.5193627601244921</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.4791758801188047</v>
+        <v>0.4804664174383064</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.3125719783609309</v>
+        <v>0.3124399584707312</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.5865265152865727</v>
+        <v>0.587817075332582</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.6601338365420476</v>
+        <v>0.659610090325742</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.5961827988013536</v>
+        <v>0.5979066979750358</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.3830466159447068</v>
+        <v>0.3823447356682616</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.5112409849273009</v>
+        <v>0.5137370196283521</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.5957684434175808</v>
+        <v>0.5958140555911067</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.5448172685143606</v>
+        <v>0.5435196737757257</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.3527466889604401</v>
+        <v>0.3525076701828668</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.4602890864399785</v>
+        <v>0.4625229735471664</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.5540675827139039</v>
+        <v>0.5558982610519254</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.5138827481849355</v>
+        <v>0.5155657601347958</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.3465911682209585</v>
+        <v>0.3458490884432784</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.6188490451500129</v>
+        <v>0.6198199262428633</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.6913946947942763</v>
+        <v>0.6917199729553822</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.6287630837305335</v>
+        <v>0.6305770440981406</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.4116411238320196</v>
+        <v>0.4116545634969717</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.5366915484612661</v>
+        <v>0.5378804098693706</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.620052955198685</v>
+        <v>0.6202370141580524</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.5679689396079676</v>
+        <v>0.568117186863942</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.3754536509548334</v>
+        <v>0.3747462531271659</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>291952</v>
+        <v>289168</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>386204</v>
+        <v>387272</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>315395</v>
+        <v>316163</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>232898</v>
+        <v>232914</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>384300</v>
+        <v>385970</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>448214</v>
+        <v>448183</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>393168</v>
+        <v>394677</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>299743</v>
+        <v>298423</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>688897</v>
+        <v>693673</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>852268</v>
+        <v>852336</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>723648</v>
+        <v>722807</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>544003</v>
+        <v>544662</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>342619</v>
+        <v>341511</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>442248</v>
+        <v>440171</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>368011</v>
+        <v>365587</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>285526</v>
+        <v>285015</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>435589</v>
+        <v>436625</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>497546</v>
+        <v>497934</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>444739</v>
+        <v>445776</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>343977</v>
+        <v>343994</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>764125</v>
+        <v>765202</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>923341</v>
+        <v>923984</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>797559</v>
+        <v>797251</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>614382</v>
+        <v>617438</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>403688</v>
+        <v>401067</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>497898</v>
+        <v>496405</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>467903</v>
+        <v>464375</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>328412</v>
+        <v>331576</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>569028</v>
+        <v>571685</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>680342</v>
+        <v>681663</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>633958</v>
+        <v>635512</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>434085</v>
+        <v>435844</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>992633</v>
+        <v>995421</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>1194313</v>
+        <v>1194438</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>1115021</v>
+        <v>1120872</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>783720</v>
+        <v>782352</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>467394</v>
+        <v>466691</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>562492</v>
+        <v>564199</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>535008</v>
+        <v>529930</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>397080</v>
+        <v>399806</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>633603</v>
+        <v>633390</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>742686</v>
+        <v>740017</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>697004</v>
+        <v>699815</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>493306</v>
+        <v>493347</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>1085071</v>
+        <v>1083436</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>1283673</v>
+        <v>1287881</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>1213762</v>
+        <v>1217720</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>869536</v>
+        <v>871356</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>277840</v>
+        <v>276156</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>341043</v>
+        <v>339602</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>327423</v>
+        <v>328772</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>216690</v>
+        <v>216966</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>384740</v>
+        <v>386343</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>487833</v>
+        <v>485978</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>429298</v>
+        <v>426122</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>252825</v>
+        <v>254196</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>676666</v>
+        <v>676726</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>844544</v>
+        <v>846021</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>766998</v>
+        <v>772321</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>483714</v>
+        <v>481440</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>328783</v>
+        <v>329305</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>398962</v>
+        <v>397271</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>383057</v>
+        <v>382837</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>275336</v>
+        <v>275390</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>438756</v>
+        <v>436474</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>543579</v>
+        <v>543539</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>484025</v>
+        <v>485173</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>301200</v>
+        <v>303493</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>751236</v>
+        <v>750797</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>925365</v>
+        <v>923955</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>849548</v>
+        <v>851269</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>562199</v>
+        <v>562506</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>364713</v>
+        <v>365865</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>497282</v>
+        <v>498117</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>461689</v>
+        <v>459800</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>265492</v>
+        <v>264405</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>584745</v>
+        <v>582970</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>673970</v>
+        <v>670876</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>596626</v>
+        <v>598764</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>391705</v>
+        <v>392938</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>972299</v>
+        <v>969185</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>1189755</v>
+        <v>1195420</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>1073579</v>
+        <v>1077236</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>673020</v>
+        <v>672019</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>426447</v>
+        <v>424841</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>561582</v>
+        <v>560055</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>520716</v>
+        <v>524922</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>326927</v>
+        <v>329112</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>649212</v>
+        <v>643471</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>735035</v>
+        <v>733083</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>658993</v>
+        <v>662128</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>448755</v>
+        <v>448674</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>1056332</v>
+        <v>1056667</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>1277734</v>
+        <v>1280206</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>1159756</v>
+        <v>1163917</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>753021</v>
+        <v>757113</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>1392370</v>
+        <v>1402180</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>1782047</v>
+        <v>1779741</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>1626491</v>
+        <v>1630871</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>1104242</v>
+        <v>1103776</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>1981989</v>
+        <v>1986350</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>2348960</v>
+        <v>2347097</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>2113195</v>
+        <v>2119305</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>1431428</v>
+        <v>1428805</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>3402688</v>
+        <v>3419301</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>4161495</v>
+        <v>4161814</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>3780428</v>
+        <v>3771424</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>2564368</v>
+        <v>2562631</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>1508157</v>
+        <v>1515476</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>1898667</v>
+        <v>1904940</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>1744298</v>
+        <v>1750011</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>1224424</v>
+        <v>1221803</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>2091213</v>
+        <v>2094494</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>2460196</v>
+        <v>2461353</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>2228677</v>
+        <v>2235107</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>1538284</v>
+        <v>1538334</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>3572080</v>
+        <v>3579993</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>4331124</v>
+        <v>4332410</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>3941075</v>
+        <v>3942104</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>2729441</v>
+        <v>2724299</v>
       </c>
     </row>
     <row r="24">
